--- a/src/tests/estimation-housing.test-cases.xlsx
+++ b/src/tests/estimation-housing.test-cases.xlsx
@@ -1,42 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/JibungotoPlanet-backend/src/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F759C46-41BA-8B4C-807B-7DAE3C2EDF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876EBE20-28EC-BA4B-B787-ABA2565BDD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="2800" windowWidth="40760" windowHeight="23140" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="answers" sheetId="44" r:id="rId1"/>
+    <sheet name="answers" sheetId="46" r:id="rId1"/>
     <sheet name="housing01" sheetId="2" r:id="rId2"/>
-    <sheet name="housing02" sheetId="25" r:id="rId3"/>
-    <sheet name="housing03" sheetId="26" r:id="rId4"/>
-    <sheet name="housing04" sheetId="27" r:id="rId5"/>
-    <sheet name="housing05" sheetId="28" r:id="rId6"/>
-    <sheet name="housing06" sheetId="29" r:id="rId7"/>
-    <sheet name="housing07" sheetId="30" r:id="rId8"/>
-    <sheet name="housing08" sheetId="31" r:id="rId9"/>
-    <sheet name="housing09" sheetId="32" r:id="rId10"/>
-    <sheet name="housing10" sheetId="33" r:id="rId11"/>
-    <sheet name="housing11" sheetId="43" r:id="rId12"/>
-    <sheet name="housing12" sheetId="34" r:id="rId13"/>
-    <sheet name="housing13" sheetId="35" r:id="rId14"/>
-    <sheet name="housing14" sheetId="36" r:id="rId15"/>
-    <sheet name="housing15" sheetId="37" r:id="rId16"/>
-    <sheet name="housing16" sheetId="38" r:id="rId17"/>
-    <sheet name="housing17" sheetId="39" r:id="rId18"/>
-    <sheet name="housing18" sheetId="40" r:id="rId19"/>
-    <sheet name="housing19" sheetId="41" r:id="rId20"/>
-    <sheet name="housing20" sheetId="42" r:id="rId21"/>
+    <sheet name="housingE1" sheetId="45" r:id="rId3"/>
+    <sheet name="housing02" sheetId="25" r:id="rId4"/>
+    <sheet name="housing03" sheetId="26" r:id="rId5"/>
+    <sheet name="housing04" sheetId="27" r:id="rId6"/>
+    <sheet name="housing05" sheetId="28" r:id="rId7"/>
+    <sheet name="housing06" sheetId="29" r:id="rId8"/>
+    <sheet name="housing07" sheetId="30" r:id="rId9"/>
+    <sheet name="housing08" sheetId="31" r:id="rId10"/>
+    <sheet name="housing09" sheetId="32" r:id="rId11"/>
+    <sheet name="housing10" sheetId="33" r:id="rId12"/>
+    <sheet name="housing11" sheetId="43" r:id="rId13"/>
+    <sheet name="housing12" sheetId="34" r:id="rId14"/>
+    <sheet name="housing13" sheetId="35" r:id="rId15"/>
+    <sheet name="housing14" sheetId="36" r:id="rId16"/>
+    <sheet name="housing15" sheetId="37" r:id="rId17"/>
+    <sheet name="housing16" sheetId="38" r:id="rId18"/>
+    <sheet name="housing17" sheetId="39" r:id="rId19"/>
+    <sheet name="housing18" sheetId="40" r:id="rId20"/>
+    <sheet name="housing19" sheetId="41" r:id="rId21"/>
+    <sheet name="housing20" sheetId="42" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">answers!$A$1:$F$281</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">answers!$A$1:$F$294</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5327" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5588" uniqueCount="182">
   <si>
     <t>case</t>
     <phoneticPr fontId="1"/>
@@ -1071,6 +1072,13 @@
     <t>ev</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>housingE1</t>
+  </si>
+  <si>
+    <t>housingE1</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1177,7 +1185,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1205,6 +1213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,7 +1451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1498,6 +1512,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1535,7 +1558,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A167AD5F-C780-664B-9423-32938C29FBF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06335321-1AAB-7848-BA54-BBA3B5C74C4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2011,18 +2034,15 @@
             </a:rPr>
             <a:t>urban-gas|lpg</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>|kerosene</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2650,14 +2670,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80174880-F183-4840-8399-565F4B8ED556}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8701CAE8-7019-DE47-817B-85A128D163B7}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:F294"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2927,8 +2947,8 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="24" t="s">
-        <v>99</v>
+      <c r="A15" s="30" t="s">
+        <v>181</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>29</v>
@@ -2937,16 +2957,16 @@
         <v>33</v>
       </c>
       <c r="D15" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>98</v>
+      <c r="A16" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>52</v>
@@ -2955,7 +2975,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>16</v>
@@ -2963,8 +2983,8 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>98</v>
+      <c r="A17" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>52</v>
@@ -2973,7 +2993,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>16</v>
@@ -2981,8 +3001,8 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>98</v>
+      <c r="A18" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>52</v>
@@ -2991,7 +3011,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="1">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>22</v>
@@ -2999,8 +3019,8 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>98</v>
+      <c r="A19" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>52</v>
@@ -3009,7 +3029,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>30</v>
@@ -3017,8 +3037,8 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>98</v>
+      <c r="A20" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>52</v>
@@ -3035,8 +3055,8 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>98</v>
+      <c r="A21" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>52</v>
@@ -3045,7 +3065,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>16</v>
@@ -3053,8 +3073,8 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>98</v>
+      <c r="A22" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>52</v>
@@ -3063,7 +3083,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>22</v>
@@ -3071,8 +3091,8 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>98</v>
+      <c r="A23" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>52</v>
@@ -3081,7 +3101,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>16</v>
@@ -3089,8 +3109,8 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>98</v>
+      <c r="A24" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>52</v>
@@ -3107,8 +3127,8 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>98</v>
+      <c r="A25" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>52</v>
@@ -3117,7 +3137,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>22</v>
@@ -3125,8 +3145,8 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>98</v>
+      <c r="A26" s="31" t="s">
+        <v>180</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>52</v>
@@ -3135,7 +3155,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>22</v>
@@ -3143,8 +3163,8 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
-        <v>98</v>
+      <c r="A27" s="32" t="s">
+        <v>180</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>52</v>
@@ -3153,7 +3173,7 @@
         <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>30</v>
@@ -3162,7 +3182,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>29</v>
@@ -3180,7 +3200,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>52</v>
@@ -3189,7 +3209,7 @@
         <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>16</v>
@@ -3198,7 +3218,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>52</v>
@@ -3207,7 +3227,7 @@
         <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>16</v>
@@ -3216,7 +3236,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>52</v>
@@ -3234,7 +3254,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>52</v>
@@ -3243,7 +3263,7 @@
         <v>37</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>30</v>
@@ -3252,7 +3272,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>52</v>
@@ -3270,7 +3290,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>52</v>
@@ -3288,7 +3308,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>52</v>
@@ -3306,7 +3326,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>52</v>
@@ -3315,7 +3335,7 @@
         <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>16</v>
@@ -3324,7 +3344,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>52</v>
@@ -3342,7 +3362,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>52</v>
@@ -3360,7 +3380,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>52</v>
@@ -3378,7 +3398,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>52</v>
@@ -3387,7 +3407,7 @@
         <v>45</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>30</v>
@@ -3396,7 +3416,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="24" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>29</v>
@@ -3405,7 +3425,7 @@
         <v>33</v>
       </c>
       <c r="D41" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>46</v>
@@ -3414,7 +3434,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>52</v>
@@ -3423,7 +3443,7 @@
         <v>34</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>16</v>
@@ -3432,7 +3452,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>52</v>
@@ -3441,7 +3461,7 @@
         <v>35</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>16</v>
@@ -3450,7 +3470,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>52</v>
@@ -3468,7 +3488,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>52</v>
@@ -3477,7 +3497,7 @@
         <v>37</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>30</v>
@@ -3486,7 +3506,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>52</v>
@@ -3504,7 +3524,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>52</v>
@@ -3522,7 +3542,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>52</v>
@@ -3540,7 +3560,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>52</v>
@@ -3549,7 +3569,7 @@
         <v>41</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>16</v>
@@ -3558,7 +3578,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>52</v>
@@ -3576,7 +3596,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>52</v>
@@ -3594,7 +3614,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>52</v>
@@ -3612,7 +3632,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>52</v>
@@ -3621,7 +3641,7 @@
         <v>45</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>30</v>
@@ -3630,7 +3650,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>29</v>
@@ -3648,7 +3668,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>52</v>
@@ -3657,7 +3677,7 @@
         <v>34</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>16</v>
@@ -3666,7 +3686,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>52</v>
@@ -3675,7 +3695,7 @@
         <v>35</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>16</v>
@@ -3684,7 +3704,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>52</v>
@@ -3702,7 +3722,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>52</v>
@@ -3711,7 +3731,7 @@
         <v>37</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>30</v>
@@ -3720,7 +3740,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>52</v>
@@ -3738,7 +3758,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>52</v>
@@ -3756,7 +3776,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>52</v>
@@ -3774,7 +3794,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>52</v>
@@ -3783,7 +3803,7 @@
         <v>41</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>16</v>
@@ -3792,7 +3812,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>52</v>
@@ -3810,7 +3830,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>52</v>
@@ -3828,7 +3848,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>52</v>
@@ -3846,7 +3866,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>52</v>
@@ -3864,7 +3884,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B67" s="24" t="s">
         <v>29</v>
@@ -3873,7 +3893,7 @@
         <v>33</v>
       </c>
       <c r="D67" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>46</v>
@@ -3882,7 +3902,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>52</v>
@@ -3891,7 +3911,7 @@
         <v>34</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>16</v>
@@ -3900,7 +3920,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>52</v>
@@ -3909,7 +3929,7 @@
         <v>35</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>16</v>
@@ -3918,7 +3938,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>52</v>
@@ -3936,7 +3956,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>52</v>
@@ -3945,7 +3965,7 @@
         <v>37</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>30</v>
@@ -3954,7 +3974,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>52</v>
@@ -3972,7 +3992,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>52</v>
@@ -3990,7 +4010,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>52</v>
@@ -4008,7 +4028,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>52</v>
@@ -4017,7 +4037,7 @@
         <v>41</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>16</v>
@@ -4026,7 +4046,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>52</v>
@@ -4044,7 +4064,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>52</v>
@@ -4062,7 +4082,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>52</v>
@@ -4080,7 +4100,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>52</v>
@@ -4098,7 +4118,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B80" s="24" t="s">
         <v>29</v>
@@ -4116,7 +4136,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>52</v>
@@ -4125,7 +4145,7 @@
         <v>34</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>16</v>
@@ -4134,7 +4154,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>52</v>
@@ -4152,7 +4172,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>52</v>
@@ -4170,7 +4190,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>52</v>
@@ -4179,7 +4199,7 @@
         <v>37</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>30</v>
@@ -4188,7 +4208,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>52</v>
@@ -4206,7 +4226,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>52</v>
@@ -4224,7 +4244,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>52</v>
@@ -4242,7 +4262,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>52</v>
@@ -4251,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>16</v>
@@ -4260,7 +4280,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>52</v>
@@ -4278,7 +4298,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>52</v>
@@ -4296,7 +4316,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>52</v>
@@ -4314,7 +4334,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>52</v>
@@ -4332,7 +4352,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B93" s="24" t="s">
         <v>29</v>
@@ -4341,7 +4361,7 @@
         <v>33</v>
       </c>
       <c r="D93" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="24" t="s">
         <v>46</v>
@@ -4350,7 +4370,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>52</v>
@@ -4368,7 +4388,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>52</v>
@@ -4386,7 +4406,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>52</v>
@@ -4404,7 +4424,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>52</v>
@@ -4413,7 +4433,7 @@
         <v>37</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>30</v>
@@ -4422,7 +4442,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>52</v>
@@ -4440,7 +4460,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>52</v>
@@ -4458,7 +4478,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>52</v>
@@ -4476,7 +4496,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>52</v>
@@ -4485,18 +4505,16 @@
         <v>41</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>52</v>
@@ -4514,7 +4532,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>52</v>
@@ -4532,7 +4550,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>52</v>
@@ -4550,7 +4568,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>52</v>
@@ -4568,7 +4586,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B106" s="24" t="s">
         <v>29</v>
@@ -4586,7 +4604,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>52</v>
@@ -4604,7 +4622,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>52</v>
@@ -4622,7 +4640,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>52</v>
@@ -4640,7 +4658,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>52</v>
@@ -4649,7 +4667,7 @@
         <v>37</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>30</v>
@@ -4658,7 +4676,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>52</v>
@@ -4676,7 +4694,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>52</v>
@@ -4694,7 +4712,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>52</v>
@@ -4712,7 +4730,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>52</v>
@@ -4721,16 +4739,18 @@
         <v>41</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>52</v>
@@ -4748,7 +4768,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>52</v>
@@ -4766,7 +4786,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>52</v>
@@ -4784,7 +4804,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>52</v>
@@ -4802,7 +4822,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B119" s="24" t="s">
         <v>29</v>
@@ -4820,7 +4840,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>52</v>
@@ -4838,7 +4858,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>52</v>
@@ -4856,7 +4876,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>52</v>
@@ -4874,7 +4894,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>52</v>
@@ -4883,7 +4903,7 @@
         <v>37</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>30</v>
@@ -4892,7 +4912,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>52</v>
@@ -4910,7 +4930,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>52</v>
@@ -4928,7 +4948,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>52</v>
@@ -4946,7 +4966,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>52</v>
@@ -4955,7 +4975,7 @@
         <v>41</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>16</v>
@@ -4964,7 +4984,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>52</v>
@@ -4982,7 +5002,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>52</v>
@@ -5000,7 +5020,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>52</v>
@@ -5018,7 +5038,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>52</v>
@@ -5036,7 +5056,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="24" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="B132" s="24" t="s">
         <v>29</v>
@@ -5054,7 +5074,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>52</v>
@@ -5072,7 +5092,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>52</v>
@@ -5090,7 +5110,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>52</v>
@@ -5108,7 +5128,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>52</v>
@@ -5117,16 +5137,16 @@
         <v>37</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F136" s="26"/>
+      <c r="F136" s="1"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>52</v>
@@ -5144,7 +5164,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>52</v>
@@ -5162,7 +5182,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>52</v>
@@ -5180,7 +5200,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>52</v>
@@ -5189,16 +5209,16 @@
         <v>41</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F140" s="26"/>
+      <c r="F140" s="1"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>52</v>
@@ -5216,7 +5236,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>52</v>
@@ -5234,7 +5254,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>52</v>
@@ -5252,7 +5272,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="2" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>52</v>
@@ -5270,7 +5290,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="24" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="B145" s="24" t="s">
         <v>29</v>
@@ -5288,7 +5308,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>52</v>
@@ -5306,7 +5326,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>52</v>
@@ -5324,7 +5344,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>52</v>
@@ -5342,7 +5362,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>52</v>
@@ -5351,7 +5371,7 @@
         <v>37</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>30</v>
@@ -5360,7 +5380,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>52</v>
@@ -5378,7 +5398,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>52</v>
@@ -5396,7 +5416,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>52</v>
@@ -5414,7 +5434,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>52</v>
@@ -5423,7 +5443,7 @@
         <v>41</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>16</v>
@@ -5432,7 +5452,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>52</v>
@@ -5450,7 +5470,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>52</v>
@@ -5468,7 +5488,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>52</v>
@@ -5486,7 +5506,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="2" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>52</v>
@@ -5504,7 +5524,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="24" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B158" s="24" t="s">
         <v>29</v>
@@ -5518,13 +5538,11 @@
       <c r="E158" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F158" s="24" t="s">
-        <v>146</v>
-      </c>
+      <c r="F158" s="24"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>52</v>
@@ -5542,7 +5560,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>52</v>
@@ -5560,7 +5578,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>52</v>
@@ -5578,7 +5596,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>52</v>
@@ -5587,16 +5605,16 @@
         <v>37</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F162" s="1"/>
+      <c r="F162" s="26"/>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>52</v>
@@ -5605,7 +5623,7 @@
         <v>38</v>
       </c>
       <c r="D163" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>23</v>
@@ -5614,7 +5632,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>52</v>
@@ -5632,7 +5650,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>52</v>
@@ -5650,7 +5668,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>52</v>
@@ -5659,16 +5677,16 @@
         <v>41</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F166" s="1"/>
+      <c r="F166" s="26"/>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>52</v>
@@ -5686,7 +5704,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>52</v>
@@ -5704,7 +5722,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>52</v>
@@ -5722,7 +5740,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>52</v>
@@ -5740,7 +5758,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B171" s="24" t="s">
         <v>29</v>
@@ -5755,12 +5773,12 @@
         <v>46</v>
       </c>
       <c r="F171" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>52</v>
@@ -5778,7 +5796,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>52</v>
@@ -5796,7 +5814,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>52</v>
@@ -5814,7 +5832,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>52</v>
@@ -5832,7 +5850,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>52</v>
@@ -5841,7 +5859,7 @@
         <v>38</v>
       </c>
       <c r="D176" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>23</v>
@@ -5850,7 +5868,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>52</v>
@@ -5868,7 +5886,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>52</v>
@@ -5886,7 +5904,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>52</v>
@@ -5904,7 +5922,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>52</v>
@@ -5913,7 +5931,7 @@
         <v>42</v>
       </c>
       <c r="D180" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>23</v>
@@ -5922,7 +5940,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>52</v>
@@ -5940,7 +5958,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>52</v>
@@ -5958,7 +5976,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>52</v>
@@ -5976,7 +5994,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B184" s="24" t="s">
         <v>29</v>
@@ -5991,12 +6009,12 @@
         <v>46</v>
       </c>
       <c r="F184" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>52</v>
@@ -6014,7 +6032,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>52</v>
@@ -6032,7 +6050,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>52</v>
@@ -6050,7 +6068,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>52</v>
@@ -6068,7 +6086,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>52</v>
@@ -6077,7 +6095,7 @@
         <v>38</v>
       </c>
       <c r="D189" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>23</v>
@@ -6086,7 +6104,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>52</v>
@@ -6104,7 +6122,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>52</v>
@@ -6122,7 +6140,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>52</v>
@@ -6140,7 +6158,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>52</v>
@@ -6158,7 +6176,7 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>52</v>
@@ -6176,7 +6194,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>52</v>
@@ -6194,7 +6212,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>52</v>
@@ -6212,7 +6230,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B197" s="24" t="s">
         <v>29</v>
@@ -6221,18 +6239,18 @@
         <v>33</v>
       </c>
       <c r="D197" s="24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E197" s="24" t="s">
         <v>46</v>
       </c>
       <c r="F197" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>52</v>
@@ -6241,7 +6259,7 @@
         <v>34</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>16</v>
@@ -6250,7 +6268,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>52</v>
@@ -6259,7 +6277,7 @@
         <v>35</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>16</v>
@@ -6268,7 +6286,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>52</v>
@@ -6286,7 +6304,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>52</v>
@@ -6295,7 +6313,7 @@
         <v>37</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>30</v>
@@ -6304,7 +6322,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>52</v>
@@ -6313,7 +6331,7 @@
         <v>38</v>
       </c>
       <c r="D202" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>23</v>
@@ -6322,7 +6340,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>52</v>
@@ -6340,7 +6358,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>52</v>
@@ -6358,7 +6376,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>52</v>
@@ -6367,7 +6385,7 @@
         <v>41</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>16</v>
@@ -6376,7 +6394,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>52</v>
@@ -6385,7 +6403,7 @@
         <v>42</v>
       </c>
       <c r="D206" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>23</v>
@@ -6394,7 +6412,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>52</v>
@@ -6412,7 +6430,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>52</v>
@@ -6429,145 +6447,145 @@
       <c r="F208" s="1"/>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F209" s="2"/>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B210" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D210" s="24">
+        <v>2</v>
+      </c>
+      <c r="E210" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F210" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E209" s="1" t="s">
+      <c r="C211" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F211" s="1"/>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F212" s="1"/>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D213" s="1">
+        <v>750</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F213" s="1"/>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F209" s="1"/>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B210" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C210" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D210" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E210" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F210" s="28"/>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B211" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C211" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D211" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="E211" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F211" s="28"/>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B212" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C212" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D212" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="E212" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F212" s="28"/>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B213" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C213" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D213" s="29">
-        <v>5500</v>
-      </c>
-      <c r="E213" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F213" s="29"/>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B214" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C214" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D214" s="24">
-        <v>2</v>
-      </c>
-      <c r="E214" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F214" s="24" t="s">
-        <v>155</v>
-      </c>
+      <c r="F214" s="1"/>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="D215" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F215" s="1"/>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>16</v>
@@ -6576,16 +6594,16 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D217" s="1">
-        <v>750</v>
+        <v>15</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>22</v>
@@ -6594,31 +6612,31 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F218" s="1"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D219" s="1" t="b">
         <v>1</v>
@@ -6630,34 +6648,34 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="D220" s="1">
+        <v>200</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F220" s="1"/>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D221" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>22</v>
@@ -6666,216 +6684,216 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="E222" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F222" s="1"/>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B223" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C223" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D223" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E223" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F223" s="28"/>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B224" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C224" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D224" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E224" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F222" s="1"/>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1" t="s">
+      <c r="F224" s="28"/>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B225" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C225" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D225" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E225" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F225" s="28"/>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B226" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C226" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D226" s="29">
+        <v>5500</v>
+      </c>
+      <c r="E226" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F226" s="29"/>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B227" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C227" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D227" s="24">
+        <v>2</v>
+      </c>
+      <c r="E227" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F227" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D223" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F223" s="1"/>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1" t="s">
+      <c r="C228" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F228" s="1"/>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D224" s="1">
-        <v>200</v>
-      </c>
-      <c r="E224" s="1" t="s">
+      <c r="C229" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F229" s="1"/>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D230" s="1">
+        <v>750</v>
+      </c>
+      <c r="E230" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F224" s="1"/>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1" t="s">
+      <c r="F230" s="1"/>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D225" s="1">
-        <v>2</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F225" s="1"/>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E226" s="1" t="s">
+      <c r="C231" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E231" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F226" s="1"/>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B227" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C227" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D227" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E227" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F227" s="28"/>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B228" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C228" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D228" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="E228" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F228" s="28"/>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B229" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C229" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D229" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E229" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F229" s="28"/>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B230" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C230" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D230" s="29">
-        <v>5500</v>
-      </c>
-      <c r="E230" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F230" s="29"/>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B231" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C231" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D231" s="24">
-        <v>3</v>
-      </c>
-      <c r="E231" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F231" s="24" t="s">
-        <v>155</v>
-      </c>
+      <c r="F231" s="1"/>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="D232" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F232" s="1"/>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>16</v>
@@ -6884,16 +6902,16 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D234" s="1">
-        <v>750</v>
+        <v>15</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>22</v>
@@ -6902,31 +6920,31 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F235" s="1"/>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>1</v>
@@ -6938,34 +6956,34 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="D237" s="1">
+        <v>200</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F237" s="1"/>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D238" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>22</v>
@@ -6974,216 +6992,216 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="E239" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F239" s="1"/>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B240" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C240" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D240" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E240" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F240" s="28"/>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B241" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C241" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D241" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E241" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F239" s="1"/>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240" s="1" t="s">
+      <c r="F241" s="28"/>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B242" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C242" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D242" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E242" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F242" s="28"/>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B243" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C243" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D243" s="29">
+        <v>5500</v>
+      </c>
+      <c r="E243" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F243" s="29"/>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B244" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C244" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D244" s="24">
+        <v>3</v>
+      </c>
+      <c r="E244" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F244" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D240" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F240" s="1"/>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241" s="1" t="s">
+      <c r="C245" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F245" s="1"/>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C241" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D241" s="1">
-        <v>200</v>
-      </c>
-      <c r="E241" s="1" t="s">
+      <c r="C246" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F246" s="1"/>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D247" s="1">
+        <v>750</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F241" s="1"/>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242" s="1" t="s">
+      <c r="F247" s="1"/>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D242" s="1">
-        <v>2</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F242" s="1"/>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E243" s="1" t="s">
+      <c r="C248" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E248" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F243" s="1"/>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B244" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C244" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D244" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E244" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F244" s="28"/>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B245" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C245" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D245" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="E245" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F245" s="28"/>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B246" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C246" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D246" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E246" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F246" s="28"/>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B247" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C247" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D247" s="29">
-        <v>5500</v>
-      </c>
-      <c r="E247" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F247" s="29"/>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B248" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C248" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D248" s="24">
-        <v>3</v>
-      </c>
-      <c r="E248" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F248" s="24" t="s">
-        <v>155</v>
-      </c>
+      <c r="F248" s="1"/>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="D249" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F249" s="1"/>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>16</v>
@@ -7192,16 +7210,16 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D251" s="1">
-        <v>750</v>
+        <v>15</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>22</v>
@@ -7210,31 +7228,31 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F252" s="1"/>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D253" s="1" t="b">
         <v>1</v>
@@ -7246,34 +7264,34 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="D254" s="1">
+        <v>200</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F254" s="1"/>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D255" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>22</v>
@@ -7282,216 +7300,216 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="E256" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F256" s="1"/>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B257" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C257" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D257" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E257" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F257" s="28"/>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B258" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C258" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D258" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E258" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F256" s="1"/>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257" s="1" t="s">
+      <c r="F258" s="28"/>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B259" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C259" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D259" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E259" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F259" s="28"/>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B260" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C260" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D260" s="29">
+        <v>5500</v>
+      </c>
+      <c r="E260" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F260" s="29"/>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B261" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C261" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D261" s="24">
+        <v>3</v>
+      </c>
+      <c r="E261" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F261" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="B262" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D257" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F257" s="1"/>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="1" t="s">
+      <c r="C262" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F262" s="1"/>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B263" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D258" s="1">
-        <v>200</v>
-      </c>
-      <c r="E258" s="1" t="s">
+      <c r="C263" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D264" s="1">
+        <v>750</v>
+      </c>
+      <c r="E264" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F258" s="1"/>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259" s="1" t="s">
+      <c r="F264" s="1"/>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B265" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C259" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D259" s="1">
-        <v>2</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F259" s="1"/>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E260" s="1" t="s">
+      <c r="C265" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E265" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F260" s="1"/>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="A261" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B261" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C261" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D261" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E261" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F261" s="28"/>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B262" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C262" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D262" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="E262" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F262" s="28"/>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B263" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C263" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D263" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="E263" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F263" s="28"/>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B264" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C264" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D264" s="29">
-        <v>5500</v>
-      </c>
-      <c r="E264" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F264" s="29"/>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="A265" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B265" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C265" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D265" s="24">
-        <v>3</v>
-      </c>
-      <c r="E265" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F265" s="24" t="s">
-        <v>155</v>
-      </c>
+      <c r="F265" s="1"/>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>100</v>
+        <v>38</v>
+      </c>
+      <c r="D266" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F266" s="1"/>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>16</v>
@@ -7500,16 +7518,16 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D268" s="1">
-        <v>750</v>
+        <v>15</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>22</v>
@@ -7518,31 +7536,31 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F269" s="1"/>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D270" s="1" t="b">
         <v>1</v>
@@ -7554,34 +7572,34 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="D271" s="1">
+        <v>200</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F271" s="1"/>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D272" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>22</v>
@@ -7590,168 +7608,404 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C273" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F273" s="1"/>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B274" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C274" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D274" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E274" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F274" s="28"/>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B275" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C275" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D275" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E275" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F275" s="28"/>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B276" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C276" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D276" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E276" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F276" s="28"/>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B277" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C277" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D277" s="29">
+        <v>5500</v>
+      </c>
+      <c r="E277" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F277" s="29"/>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B278" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C278" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D278" s="24">
+        <v>3</v>
+      </c>
+      <c r="E278" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F278" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F279" s="1"/>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F280" s="1"/>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D281" s="1">
+        <v>750</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F281" s="1"/>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F282" s="1"/>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D283" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F283" s="1"/>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F284" s="1"/>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D285" s="1">
+        <v>15</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F285" s="1"/>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E273" s="1" t="s">
+      <c r="E286" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F273" s="1"/>
-    </row>
-    <row r="274" spans="1:6">
-      <c r="A274" s="1" t="s">
+      <c r="F286" s="1"/>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="B287" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="C287" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D274" s="1" t="b">
+      <c r="D287" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E274" s="1" t="s">
+      <c r="E287" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F274" s="1"/>
-    </row>
-    <row r="275" spans="1:6">
-      <c r="A275" s="1" t="s">
+      <c r="F287" s="1"/>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="B288" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="C288" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D275" s="1">
+      <c r="D288" s="1">
         <v>200</v>
       </c>
-      <c r="E275" s="1" t="s">
+      <c r="E288" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F275" s="1"/>
-    </row>
-    <row r="276" spans="1:6">
-      <c r="A276" s="1" t="s">
+      <c r="F288" s="1"/>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="B289" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="C289" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D276" s="1">
+      <c r="D289" s="1">
         <v>2</v>
       </c>
-      <c r="E276" s="1" t="s">
+      <c r="E289" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F276" s="1"/>
-    </row>
-    <row r="277" spans="1:6">
-      <c r="A277" s="1" t="s">
+      <c r="F289" s="1"/>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B290" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="C290" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="D290" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E277" s="1" t="s">
+      <c r="E290" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F277" s="1"/>
-    </row>
-    <row r="278" spans="1:6">
-      <c r="A278" s="28" t="s">
+      <c r="F290" s="1"/>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B278" s="28" t="s">
+      <c r="B291" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C278" s="28" t="s">
+      <c r="C291" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D278" s="28" t="b">
+      <c r="D291" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="E278" s="28" t="s">
+      <c r="E291" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F278" s="28"/>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="A279" s="28" t="s">
+      <c r="F291" s="28"/>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B279" s="28" t="s">
+      <c r="B292" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C279" s="28" t="s">
+      <c r="C292" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="D279" s="28" t="s">
+      <c r="D292" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="E279" s="28" t="s">
+      <c r="E292" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F279" s="28"/>
-    </row>
-    <row r="280" spans="1:6">
-      <c r="A280" s="28" t="s">
+      <c r="F292" s="28"/>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B280" s="28" t="s">
+      <c r="B293" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C280" s="28" t="s">
+      <c r="C293" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D280" s="28" t="s">
+      <c r="D293" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="E280" s="28" t="s">
+      <c r="E293" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F280" s="28"/>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="A281" s="29" t="s">
+      <c r="F293" s="28"/>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="B281" s="29" t="s">
+      <c r="B294" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C281" s="29" t="s">
+      <c r="C294" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="D281" s="29">
+      <c r="D294" s="29">
         <v>5500</v>
       </c>
-      <c r="E281" s="29" t="s">
+      <c r="E294" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F281" s="29"/>
+      <c r="F294" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F281" xr:uid="{80174880-F183-4840-8399-565F4B8ED556}"/>
+  <autoFilter ref="A1:F294" xr:uid="{80174880-F183-4840-8399-565F4B8ED556}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7759,6 +8013,820 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7211B3-3E91-3F45-890A-9C92DB7B6DE5}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="206.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="116.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5">
+        <v>32.061793136718009</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="9">
+        <v>6.93432868197345</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="9">
+        <v>44.18305217136362</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1965.9857706985574</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1986.0730174285716</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="9">
+        <v>815.5562080000002</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="9">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="12">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.63431981113992997</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145CC0ED-9FB7-4F43-922B-C9951F790689}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -8572,7 +9640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC5B70D-E697-A24B-A591-20F21FEFCDBA}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -9386,7 +10454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94505361-6B57-6A4F-8C4F-FE522C046915}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -10200,7 +11268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DC35CE-6984-E84B-8749-78778D20AA5E}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -11014,7 +12082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDD4E51-71D0-0D46-BB23-60AF79B6348B}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -11828,7 +12896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A25FAA-9522-5144-BF7F-5E62F69C550C}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -12642,7 +13710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FBCF59-4B44-754D-8FC9-02F18F1B953E}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -13456,7 +14524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598A5967-8E01-D247-AC14-C75A5506A7CF}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -14270,7 +15338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6D7DDD-8DD7-6347-8E00-007AE9BB6C97}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -14872,820 +15940,6 @@
       </c>
       <c r="D16" s="9">
         <v>0.53349389026516225</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.3105447626180039</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="22"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.32756490664331728</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.28008110814182374</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="9">
-        <v>3.7319211581766772E-2</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="22"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.58446220328405674</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="L21" s="23"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003C4AEF-76DF-EC47-90DA-AC595C82E811}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="206.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="116.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="5">
-        <v>8.2217901784659748</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1.7782098215340265</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1.9614220396155515</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="9">
-        <v>11.330114409014385</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2089.1389401461411</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="9">
-        <v>965.45216125000013</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1359.2603466666669</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="9">
-        <v>54.817425919256138</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="12">
-        <v>103.55050000000001</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.93069899951528912</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="9">
-        <v>3.4180806918018205</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.54238644061711094</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1.3782452040258706</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="22"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.39905932909880532</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>5</v>
@@ -16713,6 +16967,820 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003C4AEF-76DF-EC47-90DA-AC595C82E811}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="206.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="116.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8.2217901784659748</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.7782098215340265</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="9">
+        <v>11.330114409014385</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2089.1389401461411</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="9">
+        <v>965.45216125000013</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1359.2603466666669</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="9">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="12">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.39905932909880532</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889070B6-3285-8841-B772-B889698E52C2}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -17526,7 +18594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8F96A2-8E29-DD48-B412-2AE08A7EE2D6}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -18341,6 +19409,820 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1309AD28-5F20-6645-8A2A-CD3FB1716A6D}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="206.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="116.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5">
+        <v>16.44358035693195</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3.556419643068053</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.9614220396155515</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="9">
+        <v>22.66022881802877</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="9">
+        <v>54.817425919256138</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="12">
+        <v>103.55050000000001</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.93069899951528912</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3.4180806918018205</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.54238644061711094</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.3782452040258706</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.63431981113992997</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.3105447626180039</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.32756490664331728</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.28008110814182374</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3.7319211581766772E-2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.58446220328405674</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C240E0-4C08-064C-A395-F80D9625C290}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -19154,7 +21036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730CBB08-2F3D-0448-A40A-37435F7F37BB}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -19968,7 +21850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA8C522-C824-4849-A0CC-A7AF801E244A}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -20782,7 +22664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115ADEA7-D974-524F-AB41-93C7FB35F2F0}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -21596,7 +23478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDA671D-FC0F-6941-8690-C1B992C32EA5}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -22410,7 +24292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E076867-C183-FA45-ADD4-9C8228D6001D}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -23222,818 +25104,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7211B3-3E91-3F45-890A-9C92DB7B6DE5}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="206.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="116.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="5">
-        <v>32.061793136718009</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="9">
-        <v>6.93432868197345</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1.9614220396155515</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="9">
-        <v>44.18305217136362</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1965.9857706985574</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1986.0730174285716</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="9">
-        <v>815.5562080000002</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="9">
-        <v>54.817425919256138</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="12">
-        <v>103.55050000000001</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.93069899951528912</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="9">
-        <v>3.4180806918018205</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.54238644061711094</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1.3782452040258706</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="22"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.63431981113992997</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.3105447626180039</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="22"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.32756490664331728</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.28008110814182374</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="9">
-        <v>3.7319211581766772E-2</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="22"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.58446220328405674</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="L21" s="23"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>